--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3026.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3026.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.169984621558365</v>
+        <v>1.386222362518311</v>
       </c>
       <c r="B1">
-        <v>1.929582787877457</v>
+        <v>1.745376229286194</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>6.746384143829346</v>
       </c>
       <c r="D1">
-        <v>1.920678305473087</v>
+        <v>1.623165965080261</v>
       </c>
       <c r="E1">
-        <v>1.202122445032203</v>
+        <v>0.9638630747795105</v>
       </c>
     </row>
   </sheetData>
